--- a/output/1Y_P17_KFSDIV.xlsx
+++ b/output/1Y_P17_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>12.5699</v>
       </c>
       <c r="C2" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D2" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>795.5513</v>
+        <v>793.9596</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.5994</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E3" s="1">
-        <v>795.5513</v>
+        <v>793.9596</v>
       </c>
       <c r="F3" s="1">
-        <v>735.3266</v>
+        <v>733.8588</v>
       </c>
       <c r="H3" s="1">
-        <v>10819.02</v>
+        <v>10775.7779</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10819.02</v>
+        <v>10775.7779</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0819</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>14.6663</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E4" s="1">
-        <v>1530.8778</v>
+        <v>1527.8183</v>
       </c>
       <c r="F4" s="1">
-        <v>681.8352</v>
+        <v>680.4712</v>
       </c>
       <c r="H4" s="1">
-        <v>22452.3136</v>
+        <v>22362.6769</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>22452.3136</v>
+        <v>22362.6769</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.0644</v>
+        <v>13.0906</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0785</v>
+        <v>0.0764</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>14.701</v>
       </c>
       <c r="C5" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D5" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E5" s="1">
-        <v>2212.7131</v>
+        <v>2208.2895</v>
       </c>
       <c r="F5" s="1">
-        <v>680.2258</v>
+        <v>678.8636</v>
       </c>
       <c r="H5" s="1">
-        <v>32529.0947</v>
+        <v>32399.1401</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>32529.0947</v>
+        <v>32399.1401</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.558</v>
+        <v>13.5852</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0024</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>13.8109</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E6" s="1">
-        <v>2892.9389</v>
+        <v>2887.1531</v>
       </c>
       <c r="F6" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="H6" s="1">
-        <v>39954.0898</v>
+        <v>39794.4969</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39954.0898</v>
+        <v>39794.4969</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.8268</v>
+        <v>13.8545</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1991.4418</v>
+        <v>1987.4605</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8008.5582</v>
+        <v>-8012.5395</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0605</v>
+        <v>-0.0614</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>13.9322</v>
       </c>
       <c r="C7" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D7" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E7" s="1">
-        <v>3617.0047</v>
+        <v>3609.7695</v>
       </c>
       <c r="F7" s="1">
-        <v>738.1815</v>
+        <v>736.6654</v>
       </c>
       <c r="H7" s="1">
-        <v>50392.8325</v>
+        <v>50191.3184</v>
       </c>
       <c r="I7" s="1">
-        <v>1991.4418</v>
+        <v>1987.4605</v>
       </c>
       <c r="J7" s="1">
-        <v>52384.2743</v>
+        <v>52178.7789</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.8236</v>
+        <v>13.8513</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10284.4917</v>
+        <v>-10283.9229</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0486</v>
+        <v>0.0479</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>12.5846</v>
       </c>
       <c r="C8" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D8" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E8" s="1">
-        <v>4355.1861</v>
+        <v>4346.4349</v>
       </c>
       <c r="F8" s="1">
-        <v>817.2283</v>
+        <v>815.55</v>
       </c>
       <c r="H8" s="1">
-        <v>54808.2754</v>
+        <v>54588.615</v>
       </c>
       <c r="I8" s="1">
-        <v>1706.9501</v>
+        <v>1703.5376</v>
       </c>
       <c r="J8" s="1">
-        <v>56515.2254</v>
+        <v>56292.1526</v>
       </c>
       <c r="K8" s="1">
-        <v>60284.4917</v>
+        <v>60283.9229</v>
       </c>
       <c r="L8" s="1">
-        <v>13.842</v>
+        <v>13.8697</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10284.4917</v>
+        <v>-10283.9229</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0941</v>
+        <v>-0.09470000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>12.2867</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E9" s="1">
-        <v>5172.4145</v>
+        <v>5161.985</v>
       </c>
       <c r="F9" s="1">
-        <v>837.0426</v>
+        <v>835.3239</v>
       </c>
       <c r="H9" s="1">
-        <v>63551.9048</v>
+        <v>63296.7761</v>
       </c>
       <c r="I9" s="1">
-        <v>1422.4584</v>
+        <v>1419.6147</v>
       </c>
       <c r="J9" s="1">
-        <v>64974.3632</v>
+        <v>64716.3908</v>
       </c>
       <c r="K9" s="1">
-        <v>70568.9834</v>
+        <v>70567.8459</v>
       </c>
       <c r="L9" s="1">
-        <v>13.6433</v>
+        <v>13.6707</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1959.8338</v>
+        <v>1955.8957</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8324.6579</v>
+        <v>-8328.0272</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0232</v>
+        <v>-0.0238</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>13.0645</v>
       </c>
       <c r="C10" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D10" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E10" s="1">
-        <v>6009.4571</v>
+        <v>5997.3089</v>
       </c>
       <c r="F10" s="1">
-        <v>824.712</v>
+        <v>822.9428</v>
       </c>
       <c r="H10" s="1">
-        <v>78510.55220000001</v>
+        <v>78195.31200000001</v>
       </c>
       <c r="I10" s="1">
-        <v>3097.8005</v>
+        <v>3091.5875</v>
       </c>
       <c r="J10" s="1">
-        <v>81608.3526</v>
+        <v>81286.89939999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80853.47500000001</v>
+        <v>80851.76880000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.4544</v>
+        <v>13.4813</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10774.4501</v>
+        <v>-10772.8969</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0885</v>
+        <v>0.08790000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>13.8083</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E11" s="1">
-        <v>6834.1691</v>
+        <v>6820.2516</v>
       </c>
       <c r="F11" s="1">
-        <v>780.288</v>
+        <v>778.6135</v>
       </c>
       <c r="H11" s="1">
-        <v>94368.2573</v>
+        <v>93987.8417</v>
       </c>
       <c r="I11" s="1">
-        <v>2323.3504</v>
+        <v>2318.6906</v>
       </c>
       <c r="J11" s="1">
-        <v>96691.6076</v>
+        <v>96306.53230000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91627.9252</v>
+        <v>91624.6657</v>
       </c>
       <c r="L11" s="1">
-        <v>13.4073</v>
+        <v>13.4342</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10774.4501</v>
+        <v>-10772.8969</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0555</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>13.5636</v>
       </c>
       <c r="C12" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D12" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E12" s="1">
-        <v>7614.4571</v>
+        <v>7598.8652</v>
       </c>
       <c r="F12" s="1">
-        <v>794.3651</v>
+        <v>792.6609999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>103279.4497</v>
+        <v>102862.0384</v>
       </c>
       <c r="I12" s="1">
-        <v>1548.9002</v>
+        <v>1545.7937</v>
       </c>
       <c r="J12" s="1">
-        <v>104828.35</v>
+        <v>104407.8321</v>
       </c>
       <c r="K12" s="1">
-        <v>102402.3753</v>
+        <v>102397.5625</v>
       </c>
       <c r="L12" s="1">
-        <v>13.4484</v>
+        <v>13.4754</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3075.3761</v>
+        <v>3069.1132</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7699.074</v>
+        <v>-7703.7836</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0175</v>
+        <v>-0.0179</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>13.1788</v>
       </c>
       <c r="C13" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D13" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E13" s="1">
-        <v>8408.822099999999</v>
+        <v>8391.5262</v>
       </c>
       <c r="F13" s="1">
-        <v>1050.9171</v>
+        <v>1048.2242</v>
       </c>
       <c r="H13" s="1">
-        <v>110818.1851</v>
+        <v>110368.7086</v>
       </c>
       <c r="I13" s="1">
-        <v>3849.8262</v>
+        <v>3842.0101</v>
       </c>
       <c r="J13" s="1">
-        <v>114668.0113</v>
+        <v>114210.7187</v>
       </c>
       <c r="K13" s="1">
-        <v>113176.8254</v>
+        <v>113170.4594</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4593</v>
+        <v>13.4863</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13849.8262</v>
+        <v>-13842.0101</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0014</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>14.5668</v>
       </c>
       <c r="C14" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D14" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E14" s="1">
-        <v>9459.7392</v>
+        <v>9439.7503</v>
       </c>
       <c r="F14" s="1">
-        <v>-9459.7392</v>
+        <v>-9439.7503</v>
       </c>
       <c r="H14" s="1">
-        <v>137798.1294</v>
+        <v>137232.2586</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>137798.1294</v>
+        <v>137232.2586</v>
       </c>
       <c r="K14" s="1">
-        <v>127026.6516</v>
+        <v>127012.4695</v>
       </c>
       <c r="L14" s="1">
-        <v>13.4281</v>
+        <v>13.4551</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>137798.1294</v>
+        <v>137232.2586</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1053</v>
+        <v>0.1048</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>12.5699</v>
       </c>
       <c r="C2" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D2" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>795.5513</v>
+        <v>793.9596</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.5994</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E3" s="1">
-        <v>795.5513</v>
+        <v>793.9596</v>
       </c>
       <c r="F3" s="1">
-        <v>675.1018</v>
+        <v>679.6409</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10819.02</v>
+        <v>10775.7779</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10819.02</v>
+        <v>10775.7779</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9180.98</v>
+        <v>-9261.194600000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0819</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>14.6663</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E4" s="1">
-        <v>1470.6531</v>
+        <v>1473.6004</v>
       </c>
       <c r="F4" s="1">
-        <v>574.8526000000001</v>
+        <v>575.9999</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>21569.0398</v>
+        <v>21569.0898</v>
       </c>
       <c r="I4" s="1">
-        <v>819.02</v>
+        <v>738.8054</v>
       </c>
       <c r="J4" s="1">
-        <v>22388.0599</v>
+        <v>22307.8952</v>
       </c>
       <c r="K4" s="1">
-        <v>19180.98</v>
+        <v>19261.1946</v>
       </c>
       <c r="L4" s="1">
-        <v>13.0425</v>
+        <v>13.0708</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8430.9602</v>
+        <v>-8464.7214</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.07539999999999999</v>
+        <v>0.0737</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>14.701</v>
       </c>
       <c r="C5" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D5" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E5" s="1">
-        <v>2045.5057</v>
+        <v>2049.6003</v>
       </c>
       <c r="F5" s="1">
-        <v>675.3977</v>
+        <v>676.7554</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30070.979</v>
+        <v>30070.9162</v>
       </c>
       <c r="I5" s="1">
-        <v>2388.0599</v>
+        <v>2274.084</v>
       </c>
       <c r="J5" s="1">
-        <v>32459.0389</v>
+        <v>32345.0002</v>
       </c>
       <c r="K5" s="1">
-        <v>27611.9401</v>
+        <v>27725.916</v>
       </c>
       <c r="L5" s="1">
-        <v>13.4988</v>
+        <v>13.5275</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9929.021000000001</v>
+        <v>-9968.9447</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0022</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>13.8109</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E6" s="1">
-        <v>2720.9033</v>
+        <v>2726.3557</v>
       </c>
       <c r="F6" s="1">
-        <v>899.4255000000001</v>
+        <v>889.1896</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>37578.1239</v>
+        <v>37578.1782</v>
       </c>
       <c r="I6" s="1">
-        <v>2459.0389</v>
+        <v>2305.1393</v>
       </c>
       <c r="J6" s="1">
-        <v>40037.1628</v>
+        <v>39883.3175</v>
       </c>
       <c r="K6" s="1">
-        <v>37540.9611</v>
+        <v>37694.8607</v>
       </c>
       <c r="L6" s="1">
-        <v>13.7972</v>
+        <v>13.8261</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1840.9551</v>
+        <v>1844.6403</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10580.9209</v>
+        <v>-10460.499</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.057</v>
+        <v>-0.0581</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>13.9322</v>
       </c>
       <c r="C7" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D7" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E7" s="1">
-        <v>3620.3289</v>
+        <v>3615.5453</v>
       </c>
       <c r="F7" s="1">
-        <v>686.2415</v>
+        <v>699.6666</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50439.1459</v>
+        <v>50271.6263</v>
       </c>
       <c r="I7" s="1">
-        <v>1878.1179</v>
+        <v>1844.6403</v>
       </c>
       <c r="J7" s="1">
-        <v>52317.2638</v>
+        <v>52116.2666</v>
       </c>
       <c r="K7" s="1">
-        <v>49962.8372</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.8006</v>
+        <v>13.8292</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9560.8541</v>
+        <v>-9767.4151</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0456</v>
+        <v>0.0448</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>12.5846</v>
       </c>
       <c r="C8" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D8" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E8" s="1">
-        <v>4306.5704</v>
+        <v>4315.2118</v>
       </c>
       <c r="F8" s="1">
-        <v>978.7569</v>
+        <v>957.765</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>54196.4657</v>
+        <v>54196.4716</v>
       </c>
       <c r="I8" s="1">
-        <v>2317.2638</v>
+        <v>2077.2252</v>
       </c>
       <c r="J8" s="1">
-        <v>56513.7296</v>
+        <v>56273.6968</v>
       </c>
       <c r="K8" s="1">
-        <v>59523.6913</v>
+        <v>59767.4151</v>
       </c>
       <c r="L8" s="1">
-        <v>13.8216</v>
+        <v>13.8504</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-12317.2638</v>
+        <v>-12077.2252</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0931</v>
+        <v>-0.0941</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>12.2867</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E9" s="1">
-        <v>5285.3273</v>
+        <v>5272.9768</v>
       </c>
       <c r="F9" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>64939.2306</v>
+        <v>64657.7694</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>64939.2306</v>
+        <v>64657.7694</v>
       </c>
       <c r="K9" s="1">
-        <v>71840.95510000001</v>
+        <v>71844.6403</v>
       </c>
       <c r="L9" s="1">
-        <v>13.5925</v>
+        <v>13.6251</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1937.9567</v>
+        <v>1941.8453</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8062.0433</v>
+        <v>-8058.1547</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0237</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>13.0645</v>
       </c>
       <c r="C10" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D10" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E10" s="1">
-        <v>6099.2155</v>
+        <v>6085.2388</v>
       </c>
       <c r="F10" s="1">
-        <v>789.6819</v>
+        <v>817.4487</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>79683.2004</v>
+        <v>79341.777</v>
       </c>
       <c r="I10" s="1">
-        <v>1937.9567</v>
+        <v>1941.8453</v>
       </c>
       <c r="J10" s="1">
-        <v>81621.15700000001</v>
+        <v>81283.6223</v>
       </c>
       <c r="K10" s="1">
-        <v>81840.95510000001</v>
+        <v>81844.6403</v>
       </c>
       <c r="L10" s="1">
-        <v>13.4183</v>
+        <v>13.4497</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10316.7996</v>
+        <v>-10700.9756</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0892</v>
+        <v>0.0887</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>13.8083</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E11" s="1">
-        <v>6888.8974</v>
+        <v>6902.6874</v>
       </c>
       <c r="F11" s="1">
-        <v>353.1237</v>
+        <v>353.838</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>95123.96189999999</v>
+        <v>95123.8649</v>
       </c>
       <c r="I11" s="1">
-        <v>1621.157</v>
+        <v>1240.8698</v>
       </c>
       <c r="J11" s="1">
-        <v>96745.1189</v>
+        <v>96364.7346</v>
       </c>
       <c r="K11" s="1">
-        <v>92157.7547</v>
+        <v>92545.6159</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3777</v>
+        <v>13.4072</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-4876.0381</v>
+        <v>-4895.7023</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0559</v>
+        <v>0.0557</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>13.5636</v>
       </c>
       <c r="C12" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D12" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E12" s="1">
-        <v>7242.0211</v>
+        <v>7256.5254</v>
       </c>
       <c r="F12" s="1">
-        <v>867.9202</v>
+        <v>869.6519</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>98227.8774</v>
+        <v>98227.9565</v>
       </c>
       <c r="I12" s="1">
-        <v>6745.1189</v>
+        <v>6345.1674</v>
       </c>
       <c r="J12" s="1">
-        <v>104972.9964</v>
+        <v>104573.1239</v>
       </c>
       <c r="K12" s="1">
-        <v>97033.7929</v>
+        <v>97441.31819999999</v>
       </c>
       <c r="L12" s="1">
-        <v>13.3987</v>
+        <v>13.4281</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3100.0038</v>
+        <v>3106.2094</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8672.118700000001</v>
+        <v>-8713.0563</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0166</v>
+        <v>-0.0168</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>13.1788</v>
       </c>
       <c r="C13" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D13" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E13" s="1">
-        <v>8109.9413</v>
+        <v>8126.1774</v>
       </c>
       <c r="F13" s="1">
-        <v>995.5918</v>
+        <v>997.6327</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>106879.2946</v>
+        <v>106878.7353</v>
       </c>
       <c r="I13" s="1">
-        <v>8073.0002</v>
+        <v>7632.1111</v>
       </c>
       <c r="J13" s="1">
-        <v>114952.2948</v>
+        <v>114510.8464</v>
       </c>
       <c r="K13" s="1">
-        <v>108805.9154</v>
+        <v>109260.5838</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4164</v>
+        <v>13.4455</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13120.7054</v>
+        <v>-13173.9397</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0002</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>14.5668</v>
       </c>
       <c r="C14" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D14" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E14" s="1">
-        <v>9105.533100000001</v>
+        <v>9123.810100000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9105.533100000001</v>
+        <v>-9123.810100000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>132638.48</v>
+        <v>132639.2141</v>
       </c>
       <c r="I14" s="1">
-        <v>4952.2948</v>
+        <v>4458.1714</v>
       </c>
       <c r="J14" s="1">
-        <v>137590.7748</v>
+        <v>137097.3855</v>
       </c>
       <c r="K14" s="1">
-        <v>121926.6208</v>
+        <v>122434.5236</v>
       </c>
       <c r="L14" s="1">
-        <v>13.3904</v>
+        <v>13.4192</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>132638.48</v>
+        <v>132639.2141</v>
       </c>
       <c r="Q14" s="3">
         <v>0.1011</v>
@@ -2224,16 +2224,16 @@
         <v>12.5699</v>
       </c>
       <c r="C2" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D2" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>795.5513</v>
+        <v>793.9596</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.5994</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E3" s="1">
-        <v>795.5513</v>
+        <v>793.9596</v>
       </c>
       <c r="F3" s="1">
-        <v>678.7785</v>
+        <v>683.3249</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10819.02</v>
+        <v>10775.7779</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10819.02</v>
+        <v>10775.7779</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9230.98</v>
+        <v>-9311.395</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0819</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>14.6663</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E4" s="1">
-        <v>1474.3297</v>
+        <v>1477.2844</v>
       </c>
       <c r="F4" s="1">
-        <v>581.4204999999999</v>
+        <v>582.581</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21622.9624</v>
+        <v>21623.0125</v>
       </c>
       <c r="I4" s="1">
-        <v>769.02</v>
+        <v>688.605</v>
       </c>
       <c r="J4" s="1">
-        <v>22391.9825</v>
+        <v>22311.6175</v>
       </c>
       <c r="K4" s="1">
-        <v>19230.98</v>
+        <v>19311.395</v>
       </c>
       <c r="L4" s="1">
-        <v>13.0439</v>
+        <v>13.0722</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8527.2876</v>
+        <v>-8561.434999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0756</v>
+        <v>0.07389999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>14.701</v>
       </c>
       <c r="C5" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D5" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E5" s="1">
-        <v>2055.7503</v>
+        <v>2059.8654</v>
       </c>
       <c r="F5" s="1">
-        <v>685.628</v>
+        <v>687.0062</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30221.5845</v>
+        <v>30221.5213</v>
       </c>
       <c r="I5" s="1">
-        <v>2241.7325</v>
+        <v>2127.17</v>
       </c>
       <c r="J5" s="1">
-        <v>32463.317</v>
+        <v>32348.6913</v>
       </c>
       <c r="K5" s="1">
-        <v>27758.2675</v>
+        <v>27872.83</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5027</v>
+        <v>13.5314</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10079.4167</v>
+        <v>-10119.9446</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0022</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>13.8109</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E6" s="1">
-        <v>2741.3782</v>
+        <v>2746.8716</v>
       </c>
       <c r="F6" s="1">
-        <v>880.6317</v>
+        <v>867.6618999999999</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>37860.9005</v>
+        <v>37860.9552</v>
       </c>
       <c r="I6" s="1">
-        <v>2162.3157</v>
+        <v>2007.2254</v>
       </c>
       <c r="J6" s="1">
-        <v>40023.2162</v>
+        <v>39868.1806</v>
       </c>
       <c r="K6" s="1">
-        <v>37837.6843</v>
+        <v>37992.7746</v>
       </c>
       <c r="L6" s="1">
-        <v>13.8024</v>
+        <v>13.8313</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1850.1752</v>
+        <v>1853.8789</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10312.1405</v>
+        <v>-10153.3465</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0575</v>
+        <v>-0.0586</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>13.9322</v>
       </c>
       <c r="C7" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D7" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E7" s="1">
-        <v>3622.0099</v>
+        <v>3614.5335</v>
       </c>
       <c r="F7" s="1">
-        <v>738.7529</v>
+        <v>754.9795</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>50462.566</v>
+        <v>50257.5575</v>
       </c>
       <c r="I7" s="1">
-        <v>1850.1752</v>
+        <v>1853.8789</v>
       </c>
       <c r="J7" s="1">
-        <v>52312.7413</v>
+        <v>52111.4363</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.8045</v>
+        <v>13.833</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10292.4528</v>
+        <v>-10539.5892</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0458</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>12.5846</v>
       </c>
       <c r="C8" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D8" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E8" s="1">
-        <v>4360.7628</v>
+        <v>4369.5129</v>
       </c>
       <c r="F8" s="1">
-        <v>918.4021</v>
+        <v>897.2616</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>54878.4549</v>
+        <v>54878.4608</v>
       </c>
       <c r="I8" s="1">
-        <v>1557.7225</v>
+        <v>1314.2897</v>
       </c>
       <c r="J8" s="1">
-        <v>56436.1774</v>
+        <v>56192.7505</v>
       </c>
       <c r="K8" s="1">
-        <v>60292.4528</v>
+        <v>60539.5892</v>
       </c>
       <c r="L8" s="1">
-        <v>13.8261</v>
+        <v>13.855</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11557.7225</v>
+        <v>-11314.2897</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.09429999999999999</v>
+        <v>-0.0953</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>12.2867</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E9" s="1">
-        <v>5279.1648</v>
+        <v>5266.7746</v>
       </c>
       <c r="F9" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>64863.5142</v>
+        <v>64581.7165</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>64863.5142</v>
+        <v>64581.7165</v>
       </c>
       <c r="K9" s="1">
-        <v>71850.1752</v>
+        <v>71853.8789</v>
       </c>
       <c r="L9" s="1">
-        <v>13.6101</v>
+        <v>13.6429</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1962.3432</v>
+        <v>1966.2808</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8037.6568</v>
+        <v>-8033.7192</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0237</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>13.0645</v>
       </c>
       <c r="C10" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D10" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E10" s="1">
-        <v>6093.053</v>
+        <v>6079.0365</v>
       </c>
       <c r="F10" s="1">
-        <v>915.6373</v>
+        <v>914.1055</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>79602.6908</v>
+        <v>79260.90919999999</v>
       </c>
       <c r="I10" s="1">
-        <v>1962.3432</v>
+        <v>1966.2808</v>
       </c>
       <c r="J10" s="1">
-        <v>81565.034</v>
+        <v>81227.19</v>
       </c>
       <c r="K10" s="1">
-        <v>81850.1752</v>
+        <v>81853.8789</v>
       </c>
       <c r="L10" s="1">
-        <v>13.4334</v>
+        <v>13.4649</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11962.3432</v>
+        <v>-11966.2808</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0895</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>13.8083</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E11" s="1">
-        <v>7008.6903</v>
+        <v>6993.142</v>
       </c>
       <c r="F11" s="1">
-        <v>398.468</v>
+        <v>428.8514</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>96778.09789999999</v>
+        <v>96370.3916</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>96778.09789999999</v>
+        <v>96370.3916</v>
       </c>
       <c r="K11" s="1">
-        <v>93812.51850000001</v>
+        <v>93820.1597</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3852</v>
+        <v>13.416</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-5502.1662</v>
+        <v>-5933.588</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0569</v>
+        <v>0.0564</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>13.5636</v>
       </c>
       <c r="C12" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D12" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E12" s="1">
-        <v>7407.1583</v>
+        <v>7421.9934</v>
       </c>
       <c r="F12" s="1">
-        <v>908.6034</v>
+        <v>910.4164</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>100467.7324</v>
+        <v>100467.8133</v>
       </c>
       <c r="I12" s="1">
-        <v>4497.8338</v>
+        <v>4066.412</v>
       </c>
       <c r="J12" s="1">
-        <v>104965.5662</v>
+        <v>104534.2253</v>
       </c>
       <c r="K12" s="1">
-        <v>99314.6847</v>
+        <v>99753.74770000001</v>
       </c>
       <c r="L12" s="1">
-        <v>13.4079</v>
+        <v>13.4403</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3153.9106</v>
+        <v>3146.9139</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9170.022300000001</v>
+        <v>-9226.373799999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.017</v>
+        <v>-0.0173</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>13.1788</v>
       </c>
       <c r="C13" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D13" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E13" s="1">
-        <v>8315.761699999999</v>
+        <v>8332.409799999999</v>
       </c>
       <c r="F13" s="1">
-        <v>1044.3943</v>
+        <v>1046.5342</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>109591.7603</v>
+        <v>109591.1868</v>
       </c>
       <c r="I13" s="1">
-        <v>5327.8114</v>
+        <v>4840.0382</v>
       </c>
       <c r="J13" s="1">
-        <v>114919.5717</v>
+        <v>114431.225</v>
       </c>
       <c r="K13" s="1">
-        <v>111638.6177</v>
+        <v>112127.0354</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4249</v>
+        <v>13.4567</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13763.8634</v>
+        <v>-13819.6939</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0004</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>14.5668</v>
       </c>
       <c r="C14" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D14" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E14" s="1">
-        <v>9360.156000000001</v>
+        <v>9378.944100000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9360.156000000001</v>
+        <v>-9378.944100000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>136347.5202</v>
+        <v>136348.2749</v>
       </c>
       <c r="I14" s="1">
-        <v>1563.948</v>
+        <v>1020.3443</v>
       </c>
       <c r="J14" s="1">
-        <v>137911.4682</v>
+        <v>137368.6192</v>
       </c>
       <c r="K14" s="1">
-        <v>125402.4811</v>
+        <v>125946.7293</v>
       </c>
       <c r="L14" s="1">
-        <v>13.3975</v>
+        <v>13.4287</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>136347.5202</v>
+        <v>136348.2749</v>
       </c>
       <c r="Q14" s="3">
         <v>0.104</v>
@@ -2992,16 +2992,16 @@
         <v>12.5699</v>
       </c>
       <c r="C2" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D2" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>795.5513</v>
+        <v>793.9596</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.5994</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E3" s="1">
-        <v>795.5513</v>
+        <v>793.9596</v>
       </c>
       <c r="F3" s="1">
-        <v>682.4551</v>
+        <v>687.0089</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10819.02</v>
+        <v>10775.7779</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10819.02</v>
+        <v>10775.7779</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9280.98</v>
+        <v>-9361.5954</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0819</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>14.6663</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E4" s="1">
-        <v>1478.0064</v>
+        <v>1480.9685</v>
       </c>
       <c r="F4" s="1">
-        <v>588.0225</v>
+        <v>589.1962</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21676.885</v>
+        <v>21676.9352</v>
       </c>
       <c r="I4" s="1">
-        <v>719.02</v>
+        <v>638.4046</v>
       </c>
       <c r="J4" s="1">
-        <v>22395.905</v>
+        <v>22315.3398</v>
       </c>
       <c r="K4" s="1">
-        <v>19280.98</v>
+        <v>19361.5954</v>
       </c>
       <c r="L4" s="1">
-        <v>13.0453</v>
+        <v>13.0736</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8624.115</v>
+        <v>-8658.650600000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0757</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>14.701</v>
       </c>
       <c r="C5" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D5" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E5" s="1">
-        <v>2066.0289</v>
+        <v>2070.1647</v>
       </c>
       <c r="F5" s="1">
-        <v>695.9607</v>
+        <v>697.3597</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30372.6912</v>
+        <v>30372.6277</v>
       </c>
       <c r="I5" s="1">
-        <v>2094.905</v>
+        <v>1979.754</v>
       </c>
       <c r="J5" s="1">
-        <v>32467.5963</v>
+        <v>32352.3817</v>
       </c>
       <c r="K5" s="1">
-        <v>27905.095</v>
+        <v>28020.246</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5066</v>
+        <v>13.5353</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10231.3188</v>
+        <v>-10272.4568</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0022</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>13.8109</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E6" s="1">
-        <v>2761.9897</v>
+        <v>2767.5243</v>
       </c>
       <c r="F6" s="1">
-        <v>859.0017</v>
+        <v>845.9886</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>38145.563</v>
+        <v>38145.6181</v>
       </c>
       <c r="I6" s="1">
-        <v>1863.5863</v>
+        <v>1707.2972</v>
       </c>
       <c r="J6" s="1">
-        <v>40009.1493</v>
+        <v>39852.9153</v>
       </c>
       <c r="K6" s="1">
-        <v>38136.4137</v>
+        <v>38292.7028</v>
       </c>
       <c r="L6" s="1">
-        <v>13.8076</v>
+        <v>13.8364</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1859.426</v>
+        <v>1863.1482</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10004.1602</v>
+        <v>-9844.148999999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0579</v>
+        <v>-0.059</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>13.9322</v>
       </c>
       <c r="C7" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D7" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E7" s="1">
-        <v>3620.9913</v>
+        <v>3613.5129</v>
       </c>
       <c r="F7" s="1">
-        <v>794.6896</v>
+        <v>811.0285</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>50448.3755</v>
+        <v>50243.3672</v>
       </c>
       <c r="I7" s="1">
-        <v>1859.426</v>
+        <v>1863.1482</v>
       </c>
       <c r="J7" s="1">
-        <v>52307.8015</v>
+        <v>52106.5154</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.8084</v>
+        <v>13.837</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11071.7751</v>
+        <v>-11322.0388</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.046</v>
+        <v>0.0452</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>12.5846</v>
       </c>
       <c r="C8" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D8" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E8" s="1">
-        <v>4415.681</v>
+        <v>4424.5414</v>
       </c>
       <c r="F8" s="1">
-        <v>857.2105</v>
+        <v>835.9458</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>55569.5789</v>
+        <v>55569.5849</v>
       </c>
       <c r="I8" s="1">
-        <v>787.6509</v>
+        <v>541.1094000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>56357.2298</v>
+        <v>56110.6943</v>
       </c>
       <c r="K8" s="1">
-        <v>61071.7751</v>
+        <v>61322.0388</v>
       </c>
       <c r="L8" s="1">
-        <v>13.8307</v>
+        <v>13.8595</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10787.6509</v>
+        <v>-10541.1094</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0955</v>
+        <v>-0.0965</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>12.2867</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E9" s="1">
-        <v>5272.8915</v>
+        <v>5260.4872</v>
       </c>
       <c r="F9" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>64786.4355</v>
+        <v>64504.6198</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>64786.4355</v>
+        <v>64504.6198</v>
       </c>
       <c r="K9" s="1">
-        <v>71859.42600000001</v>
+        <v>71863.1482</v>
       </c>
       <c r="L9" s="1">
-        <v>13.6281</v>
+        <v>13.6609</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1987.0564</v>
+        <v>1991.0436</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8012.9436</v>
+        <v>-8008.9564</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0237</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>13.0645</v>
       </c>
       <c r="C10" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D10" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E10" s="1">
-        <v>6086.7796</v>
+        <v>6072.7491</v>
       </c>
       <c r="F10" s="1">
-        <v>917.5289</v>
+        <v>915.9971</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>79520.73269999999</v>
+        <v>79178.9317</v>
       </c>
       <c r="I10" s="1">
-        <v>1987.0564</v>
+        <v>1991.0436</v>
       </c>
       <c r="J10" s="1">
-        <v>81507.78909999999</v>
+        <v>81169.97530000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81859.42600000001</v>
+        <v>81863.1482</v>
       </c>
       <c r="L10" s="1">
-        <v>13.4487</v>
+        <v>13.4804</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11987.0564</v>
+        <v>-11991.0436</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.08989999999999999</v>
+        <v>0.0895</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>13.8083</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E11" s="1">
-        <v>7004.3086</v>
+        <v>6988.7462</v>
       </c>
       <c r="F11" s="1">
-        <v>572.4478</v>
+        <v>603.1849</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>96717.5938</v>
+        <v>96309.8149</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>96717.5938</v>
+        <v>96309.8149</v>
       </c>
       <c r="K11" s="1">
-        <v>93846.4825</v>
+        <v>93854.1918</v>
       </c>
       <c r="L11" s="1">
-        <v>13.3984</v>
+        <v>13.4293</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7904.5316</v>
+        <v>-8345.6666</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0569</v>
+        <v>0.0564</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>13.5636</v>
       </c>
       <c r="C12" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D12" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E12" s="1">
-        <v>7576.7564</v>
+        <v>7591.9311</v>
       </c>
       <c r="F12" s="1">
-        <v>891.7594</v>
+        <v>857.5164</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>102768.0931</v>
+        <v>102768.1758</v>
       </c>
       <c r="I12" s="1">
-        <v>2095.4684</v>
+        <v>1654.3334</v>
       </c>
       <c r="J12" s="1">
-        <v>104863.5615</v>
+        <v>104422.5092</v>
       </c>
       <c r="K12" s="1">
-        <v>101751.0141</v>
+        <v>102199.8584</v>
       </c>
       <c r="L12" s="1">
-        <v>13.4294</v>
+        <v>13.4616</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3151.9389</v>
+        <v>3144.9358</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8943.5296</v>
+        <v>-8509.3976</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0174</v>
+        <v>-0.0178</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>13.1788</v>
       </c>
       <c r="C13" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D13" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E13" s="1">
-        <v>8468.515799999999</v>
+        <v>8449.4475</v>
       </c>
       <c r="F13" s="1">
-        <v>997.9618</v>
+        <v>995.4363</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>111604.8766</v>
+        <v>111130.5133</v>
       </c>
       <c r="I13" s="1">
-        <v>3151.9389</v>
+        <v>3144.9358</v>
       </c>
       <c r="J13" s="1">
-        <v>114756.8155</v>
+        <v>114275.4491</v>
       </c>
       <c r="K13" s="1">
-        <v>113846.4825</v>
+        <v>113854.1918</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4435</v>
+        <v>13.4747</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13151.9389</v>
+        <v>-13144.9358</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0009</v>
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>14.5668</v>
       </c>
       <c r="C14" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D14" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E14" s="1">
-        <v>9466.4776</v>
+        <v>9444.8838</v>
       </c>
       <c r="F14" s="1">
-        <v>-9466.4776</v>
+        <v>-9444.8838</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>137896.2865</v>
+        <v>137306.8876</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>137896.2865</v>
+        <v>137306.8876</v>
       </c>
       <c r="K14" s="1">
-        <v>126998.4213</v>
+        <v>126999.1276</v>
       </c>
       <c r="L14" s="1">
-        <v>13.4156</v>
+        <v>13.4463</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>137896.2865</v>
+        <v>137306.8876</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1053</v>
+        <v>0.1049</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>12.5699</v>
       </c>
       <c r="C2" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D2" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>795.5513</v>
+        <v>793.9596</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.5994</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E3" s="1">
-        <v>795.5513</v>
+        <v>793.9596</v>
       </c>
       <c r="F3" s="1">
-        <v>686.1317</v>
+        <v>690.6929</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10819.02</v>
+        <v>10775.7779</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10819.02</v>
+        <v>10775.7779</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9330.98</v>
+        <v>-9411.7958</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0819</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>14.6663</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E4" s="1">
-        <v>1481.683</v>
+        <v>1484.6525</v>
       </c>
       <c r="F4" s="1">
-        <v>594.6587</v>
+        <v>595.8456</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21730.8076</v>
+        <v>21730.8579</v>
       </c>
       <c r="I4" s="1">
-        <v>669.02</v>
+        <v>588.2042</v>
       </c>
       <c r="J4" s="1">
-        <v>22399.8276</v>
+        <v>22319.0621</v>
       </c>
       <c r="K4" s="1">
-        <v>19330.98</v>
+        <v>19411.7958</v>
       </c>
       <c r="L4" s="1">
-        <v>13.0466</v>
+        <v>13.075</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8721.4424</v>
+        <v>-8756.368200000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0759</v>
+        <v>0.0743</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>14.701</v>
       </c>
       <c r="C5" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D5" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E5" s="1">
-        <v>2076.3417</v>
+        <v>2080.4981</v>
       </c>
       <c r="F5" s="1">
-        <v>706.3964999999999</v>
+        <v>707.8164</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30524.2991</v>
+        <v>30524.2352</v>
       </c>
       <c r="I5" s="1">
-        <v>1947.5776</v>
+        <v>1831.836</v>
       </c>
       <c r="J5" s="1">
-        <v>32471.8767</v>
+        <v>32356.0712</v>
       </c>
       <c r="K5" s="1">
-        <v>28052.4224</v>
+        <v>28168.164</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5105</v>
+        <v>13.5391</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10384.7347</v>
+        <v>-10426.4889</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0022</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>13.8109</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E6" s="1">
-        <v>2782.7382</v>
+        <v>2788.3144</v>
       </c>
       <c r="F6" s="1">
-        <v>837.2259</v>
+        <v>824.1691</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>38432.1185</v>
+        <v>38432.1741</v>
       </c>
       <c r="I6" s="1">
-        <v>1562.843</v>
+        <v>1405.3471</v>
       </c>
       <c r="J6" s="1">
-        <v>39994.9615</v>
+        <v>39837.5211</v>
       </c>
       <c r="K6" s="1">
-        <v>38437.157</v>
+        <v>38594.6529</v>
       </c>
       <c r="L6" s="1">
-        <v>13.8127</v>
+        <v>13.8416</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>1868.7075</v>
+        <v>1872.4482</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9694.135399999999</v>
+        <v>-9532.898800000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0583</v>
+        <v>-0.0595</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>13.9322</v>
       </c>
       <c r="C7" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D7" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E7" s="1">
-        <v>3619.964</v>
+        <v>3612.4836</v>
       </c>
       <c r="F7" s="1">
-        <v>851.3692</v>
+        <v>850.4558</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50434.0631</v>
+        <v>50229.0551</v>
       </c>
       <c r="I7" s="1">
-        <v>1868.7075</v>
+        <v>1872.4482</v>
       </c>
       <c r="J7" s="1">
-        <v>52302.7706</v>
+        <v>52101.5033</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.8123</v>
+        <v>13.8409</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11861.4462</v>
+        <v>-11872.4482</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0462</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>12.5846</v>
       </c>
       <c r="C8" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D8" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E8" s="1">
-        <v>4471.3333</v>
+        <v>4462.9394</v>
       </c>
       <c r="F8" s="1">
-        <v>795.199</v>
+        <v>793.034</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>56269.9406</v>
+        <v>56051.8407</v>
       </c>
       <c r="I8" s="1">
-        <v>7.2613</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>56277.2019</v>
+        <v>56051.8407</v>
       </c>
       <c r="K8" s="1">
-        <v>61861.4462</v>
+        <v>61872.4482</v>
       </c>
       <c r="L8" s="1">
-        <v>13.8351</v>
+        <v>13.8636</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10007.2613</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.0974</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>12.2867</v>
       </c>
       <c r="C9" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D9" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E9" s="1">
-        <v>5266.5323</v>
+        <v>5255.9734</v>
       </c>
       <c r="F9" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>64708.302</v>
+        <v>64449.271</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>64708.302</v>
+        <v>64449.271</v>
       </c>
       <c r="K9" s="1">
-        <v>71868.7075</v>
+        <v>71872.4482</v>
       </c>
       <c r="L9" s="1">
-        <v>13.6463</v>
+        <v>13.6744</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2012.1</v>
+        <v>2008.3227</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7987.9</v>
+        <v>-7991.6773</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0237</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>13.0645</v>
       </c>
       <c r="C10" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D10" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E10" s="1">
-        <v>6080.4205</v>
+        <v>6068.2353</v>
       </c>
       <c r="F10" s="1">
-        <v>919.4458</v>
+        <v>917.3171</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>79437.65300000001</v>
+        <v>79120.0787</v>
       </c>
       <c r="I10" s="1">
-        <v>2012.1</v>
+        <v>2008.3227</v>
       </c>
       <c r="J10" s="1">
-        <v>81449.75290000001</v>
+        <v>81128.4014</v>
       </c>
       <c r="K10" s="1">
-        <v>81868.7075</v>
+        <v>81872.4482</v>
       </c>
       <c r="L10" s="1">
-        <v>13.4643</v>
+        <v>13.492</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12012.1</v>
+        <v>-12008.3227</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0902</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>13.8083</v>
       </c>
       <c r="C11" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D11" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E11" s="1">
-        <v>6999.8663</v>
+        <v>6985.5523</v>
       </c>
       <c r="F11" s="1">
-        <v>724.2021</v>
+        <v>722.7522</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>96656.25350000001</v>
+        <v>96265.8012</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>96656.25350000001</v>
+        <v>96265.8012</v>
       </c>
       <c r="K11" s="1">
-        <v>93880.8075</v>
+        <v>93880.77099999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.4118</v>
+        <v>13.4393</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0569</v>
+        <v>0.0564</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>13.5636</v>
       </c>
       <c r="C12" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D12" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E12" s="1">
-        <v>7724.0684</v>
+        <v>7708.3046</v>
       </c>
       <c r="F12" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>104766.1739</v>
+        <v>104343.4651</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>104766.1739</v>
+        <v>104343.4651</v>
       </c>
       <c r="K12" s="1">
-        <v>103880.8075</v>
+        <v>103880.771</v>
       </c>
       <c r="L12" s="1">
-        <v>13.449</v>
+        <v>13.4765</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3149.9398</v>
+        <v>3143.4986</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6850.0602</v>
+        <v>-6856.5014</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0177</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>13.1788</v>
       </c>
       <c r="C13" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D13" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E13" s="1">
-        <v>8461.335800000001</v>
+        <v>8444.0964</v>
       </c>
       <c r="F13" s="1">
-        <v>997.8101</v>
+        <v>995.3275</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>111510.2519</v>
+        <v>111060.1341</v>
       </c>
       <c r="I13" s="1">
-        <v>3149.9398</v>
+        <v>3143.4986</v>
       </c>
       <c r="J13" s="1">
-        <v>114660.1918</v>
+        <v>114203.6327</v>
       </c>
       <c r="K13" s="1">
-        <v>113880.8075</v>
+        <v>113880.771</v>
       </c>
       <c r="L13" s="1">
-        <v>13.459</v>
+        <v>13.4864</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13149.9398</v>
+        <v>-13143.4986</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0009</v>
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>14.5668</v>
       </c>
       <c r="C14" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D14" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E14" s="1">
-        <v>9459.1459</v>
+        <v>9439.4239</v>
       </c>
       <c r="F14" s="1">
-        <v>-9459.1459</v>
+        <v>-9439.4239</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>137789.4862</v>
+        <v>137227.5134</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>137789.4862</v>
+        <v>137227.5134</v>
       </c>
       <c r="K14" s="1">
-        <v>127030.7473</v>
+        <v>127024.2695</v>
       </c>
       <c r="L14" s="1">
-        <v>13.4294</v>
+        <v>13.4568</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>137789.4862</v>
+        <v>137227.5134</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.1053</v>
+        <v>0.1049</v>
       </c>
     </row>
   </sheetData>
@@ -4451,7 +4451,7 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.4281</v>
+        <v>13.4551</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3904</v>
+        <v>13.4192</v>
       </c>
       <c r="E3" s="1">
-        <v>13.3975</v>
+        <v>13.4287</v>
       </c>
       <c r="F3" s="1">
-        <v>13.4156</v>
+        <v>13.4463</v>
       </c>
       <c r="G3" s="1">
-        <v>13.4294</v>
+        <v>13.4568</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.17</v>
       </c>
       <c r="C4" s="3">
-        <v>0.264</v>
+        <v>0.2513</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2606</v>
+        <v>0.2488</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2631</v>
+        <v>0.2507</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2626</v>
+        <v>0.2498</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2614</v>
+        <v>0.2489</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.2088</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2116</v>
+        <v>0.2104</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2071</v>
+        <v>0.2064</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2094</v>
+        <v>0.2088</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2111</v>
+        <v>0.2103</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2122</v>
+        <v>0.2112</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.7171</v>
       </c>
       <c r="C6" s="4">
-        <v>1.1515</v>
+        <v>1.0978</v>
       </c>
       <c r="D6" s="4">
-        <v>1.1605</v>
+        <v>1.1068</v>
       </c>
       <c r="E6" s="4">
-        <v>1.159</v>
+        <v>1.1034</v>
       </c>
       <c r="F6" s="4">
-        <v>1.1476</v>
+        <v>1.0912</v>
       </c>
       <c r="G6" s="4">
-        <v>1.136</v>
+        <v>1.0824</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2908</v>
+        <v>0.2813</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2941</v>
+        <v>0.2847</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2953</v>
+        <v>0.2852</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2922</v>
+        <v>0.2818</v>
       </c>
       <c r="G7" s="3">
-        <v>0.289</v>
+        <v>0.2794</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>7026.6516</v>
+        <v>7012.4695</v>
       </c>
       <c r="D8" s="1">
-        <v>6878.9156</v>
+        <v>6892.695</v>
       </c>
       <c r="E8" s="1">
-        <v>6966.4291</v>
+        <v>6967.0736</v>
       </c>
       <c r="F8" s="1">
-        <v>6998.4213</v>
+        <v>6999.1276</v>
       </c>
       <c r="G8" s="1">
-        <v>7030.7473</v>
+        <v>7024.2695</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P17_KFSDIV.xlsx
+++ b/output/1Y_P17_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5699</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5994</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6663</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.701</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8109</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.9322</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5846</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2867</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.0645</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8083</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5636</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.1788</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.5668</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5699</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5994</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6663</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.701</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8109</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.9322</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5846</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2867</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.0645</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8083</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5636</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.1788</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.5668</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5699</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5994</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6663</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.701</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8109</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.9322</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5846</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2867</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.0645</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8083</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5636</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.1788</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.5668</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5699</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5994</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6663</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.701</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8109</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.9322</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5846</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2867</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.0645</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8083</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5636</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.1788</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.5668</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5699</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.5994</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6663</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.701</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8109</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.9322</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.5846</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.2867</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.0645</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8083</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.5636</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.1788</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.5668</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>8761.617399999999</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0806</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1334</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1047</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0822</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.081</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
